--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ndp-Lgr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ndp-Lgr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -85,10 +88,10 @@
     <t>Lgr4</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.082811</v>
+        <v>0.008202333333333334</v>
       </c>
       <c r="H2">
-        <v>0.165622</v>
+        <v>0.024607</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.0618542966452333</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.08999806156895879</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.574348666666667</v>
+        <v>0.5779736666666667</v>
       </c>
       <c r="N2">
-        <v>4.723046</v>
+        <v>1.733921</v>
       </c>
       <c r="O2">
-        <v>0.0919647296207302</v>
+        <v>0.04835019606981441</v>
       </c>
       <c r="P2">
-        <v>0.107609035279699</v>
+        <v>0.05356228267519154</v>
       </c>
       <c r="Q2">
-        <v>0.1303733874353333</v>
+        <v>0.00474073267188889</v>
       </c>
       <c r="R2">
-        <v>0.782240324612</v>
+        <v>0.042666594047</v>
       </c>
       <c r="S2">
-        <v>0.0919647296207302</v>
+        <v>0.002990667370557494</v>
       </c>
       <c r="T2">
-        <v>0.107609035279699</v>
+        <v>0.004820501613975863</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -596,19 +599,19 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.082811</v>
+        <v>0.008202333333333334</v>
       </c>
       <c r="H3">
-        <v>0.165622</v>
+        <v>0.024607</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.0618542966452333</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.08999806156895879</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +626,22 @@
         <v>23.373048</v>
       </c>
       <c r="O3">
-        <v>0.4551080043963893</v>
+        <v>0.6517548686181108</v>
       </c>
       <c r="P3">
-        <v>0.532527345028208</v>
+        <v>0.7220131735856595</v>
       </c>
       <c r="Q3">
-        <v>0.6451818259759999</v>
+        <v>0.06390451023733335</v>
       </c>
       <c r="R3">
-        <v>3.871090955856</v>
+        <v>0.575140592136</v>
       </c>
       <c r="S3">
-        <v>0.4551080043963893</v>
+        <v>0.04031383898347968</v>
       </c>
       <c r="T3">
-        <v>0.532527345028208</v>
+        <v>0.06497978604996152</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.082811</v>
+        <v>0.008202333333333334</v>
       </c>
       <c r="H4">
-        <v>0.165622</v>
+        <v>0.024607</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.0618542966452333</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.08999806156895879</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>7.4663515</v>
+        <v>0.05015166666666667</v>
       </c>
       <c r="N4">
-        <v>14.932703</v>
+        <v>0.150455</v>
       </c>
       <c r="O4">
-        <v>0.436142902451617</v>
+        <v>0.004195421100317676</v>
       </c>
       <c r="P4">
-        <v>0.3402240342245802</v>
+        <v>0.004647681895481942</v>
       </c>
       <c r="Q4">
-        <v>0.6182960340665</v>
+        <v>0.0004113606872222223</v>
       </c>
       <c r="R4">
-        <v>2.473184136266</v>
+        <v>0.003702246185</v>
       </c>
       <c r="S4">
-        <v>0.436142902451617</v>
+        <v>0.0002595048212907207</v>
       </c>
       <c r="T4">
-        <v>0.3402240342245802</v>
+        <v>0.0004182823613825189</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,433 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.082811</v>
+        <v>0.008202333333333334</v>
       </c>
       <c r="H5">
-        <v>0.165622</v>
+        <v>0.024607</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.0618542966452333</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.08999806156895879</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2873323333333333</v>
+        <v>3.489664</v>
       </c>
       <c r="N5">
-        <v>0.8619969999999999</v>
+        <v>6.979328</v>
       </c>
       <c r="O5">
-        <v>0.01678436353126363</v>
+        <v>0.2919266886169084</v>
       </c>
       <c r="P5">
-        <v>0.01963958546751284</v>
+        <v>0.215597330685123</v>
       </c>
       <c r="Q5">
-        <v>0.02379427785566666</v>
+        <v>0.02862338734933333</v>
       </c>
       <c r="R5">
-        <v>0.142765667134</v>
+        <v>0.171740324096</v>
       </c>
       <c r="S5">
-        <v>0.01678436353126363</v>
+        <v>0.0180569199963709</v>
       </c>
       <c r="T5">
-        <v>0.01963958546751284</v>
+        <v>0.01940334184110287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.008202333333333334</v>
+      </c>
+      <c r="H6">
+        <v>0.024607</v>
+      </c>
+      <c r="I6">
+        <v>0.0618542966452333</v>
+      </c>
+      <c r="J6">
+        <v>0.08999806156895879</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.0451</v>
+      </c>
+      <c r="N6">
+        <v>0.1353</v>
+      </c>
+      <c r="O6">
+        <v>0.003772825594848836</v>
+      </c>
+      <c r="P6">
+        <v>0.004179531158543795</v>
+      </c>
+      <c r="Q6">
+        <v>0.0003699252333333334</v>
+      </c>
+      <c r="R6">
+        <v>0.0033293271</v>
+      </c>
+      <c r="S6">
+        <v>0.0002333654735345087</v>
+      </c>
+      <c r="T6">
+        <v>0.0003761497025360061</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.124405</v>
+      </c>
+      <c r="H7">
+        <v>0.24881</v>
+      </c>
+      <c r="I7">
+        <v>0.9381457033547667</v>
+      </c>
+      <c r="J7">
+        <v>0.9100019384310413</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.5779736666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.733921</v>
+      </c>
+      <c r="O7">
+        <v>0.04835019606981441</v>
+      </c>
+      <c r="P7">
+        <v>0.05356228267519154</v>
+      </c>
+      <c r="Q7">
+        <v>0.07190281400166666</v>
+      </c>
+      <c r="R7">
+        <v>0.4314168840099999</v>
+      </c>
+      <c r="S7">
+        <v>0.04535952869925691</v>
+      </c>
+      <c r="T7">
+        <v>0.04874178106121568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.124405</v>
+      </c>
+      <c r="H8">
+        <v>0.24881</v>
+      </c>
+      <c r="I8">
+        <v>0.9381457033547667</v>
+      </c>
+      <c r="J8">
+        <v>0.9100019384310413</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>7.791016</v>
+      </c>
+      <c r="N8">
+        <v>23.373048</v>
+      </c>
+      <c r="O8">
+        <v>0.6517548686181108</v>
+      </c>
+      <c r="P8">
+        <v>0.7220131735856595</v>
+      </c>
+      <c r="Q8">
+        <v>0.9692413454799998</v>
+      </c>
+      <c r="R8">
+        <v>5.81544807288</v>
+      </c>
+      <c r="S8">
+        <v>0.6114410296346311</v>
+      </c>
+      <c r="T8">
+        <v>0.6570333875356981</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.124405</v>
+      </c>
+      <c r="H9">
+        <v>0.24881</v>
+      </c>
+      <c r="I9">
+        <v>0.9381457033547667</v>
+      </c>
+      <c r="J9">
+        <v>0.9100019384310413</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.05015166666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.150455</v>
+      </c>
+      <c r="O9">
+        <v>0.004195421100317676</v>
+      </c>
+      <c r="P9">
+        <v>0.004647681895481942</v>
+      </c>
+      <c r="Q9">
+        <v>0.006239118091666667</v>
+      </c>
+      <c r="R9">
+        <v>0.03743470855</v>
+      </c>
+      <c r="S9">
+        <v>0.003935916279026955</v>
+      </c>
+      <c r="T9">
+        <v>0.004229399534099424</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.124405</v>
+      </c>
+      <c r="H10">
+        <v>0.24881</v>
+      </c>
+      <c r="I10">
+        <v>0.9381457033547667</v>
+      </c>
+      <c r="J10">
+        <v>0.9100019384310413</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.489664</v>
+      </c>
+      <c r="N10">
+        <v>6.979328</v>
+      </c>
+      <c r="O10">
+        <v>0.2919266886169084</v>
+      </c>
+      <c r="P10">
+        <v>0.215597330685123</v>
+      </c>
+      <c r="Q10">
+        <v>0.4341316499199999</v>
+      </c>
+      <c r="R10">
+        <v>1.73652659968</v>
+      </c>
+      <c r="S10">
+        <v>0.2738697686205375</v>
+      </c>
+      <c r="T10">
+        <v>0.1961939888440202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.124405</v>
+      </c>
+      <c r="H11">
+        <v>0.24881</v>
+      </c>
+      <c r="I11">
+        <v>0.9381457033547667</v>
+      </c>
+      <c r="J11">
+        <v>0.9100019384310413</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.0451</v>
+      </c>
+      <c r="N11">
+        <v>0.1353</v>
+      </c>
+      <c r="O11">
+        <v>0.003772825594848836</v>
+      </c>
+      <c r="P11">
+        <v>0.004179531158543795</v>
+      </c>
+      <c r="Q11">
+        <v>0.0056106655</v>
+      </c>
+      <c r="R11">
+        <v>0.033663993</v>
+      </c>
+      <c r="S11">
+        <v>0.003539460121314327</v>
+      </c>
+      <c r="T11">
+        <v>0.003803381456007789</v>
       </c>
     </row>
   </sheetData>
